--- a/.extra/Imports/Товары для вас.xlsx
+++ b/.extra/Imports/Товары для вас.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\bauten.loc\.extra\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD04D4-A1AD-48E1-AA82-815787C1A198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E421B-274D-4523-8082-5A66453317A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20640" windowHeight="11160" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15300" windowHeight="7965" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>Запчасти</t>
   </si>
   <si>
-    <t>54ST55T1XDDWA18CG-01,57TB0609B01</t>
+    <t>190a5377-903d-11e6-a282-00155d466602</t>
   </si>
   <si>
-    <t xml:space="preserve">35BD219T12VV,38BWD26E1CA61,42BWD06CA98,43BWD06BCA133**	</t>
+    <t>41de306c-9cee-11e7-80c4-448a5b2c34e5,41de3070-9cee-11e7-80c4-448a5b2c34e5</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
